--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/10/seed1/result_data_RandomForest.xlsx
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.967800000000002</v>
+        <v>-6.862099999999997</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -556,10 +556,10 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.701200000000002</v>
+        <v>-8.672499999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.24429999999999</v>
+        <v>16.06150000000001</v>
       </c>
     </row>
     <row r="8">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.2351</v>
+        <v>16.3213</v>
       </c>
     </row>
     <row r="16">
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.6412</v>
+        <v>-8.697100000000002</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>17.1344</v>
+        <v>17.26739999999999</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>17.2125</v>
+        <v>17.109</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.10149999999998</v>
+        <v>16.09399999999999</v>
       </c>
     </row>
     <row r="24">
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.390699999999999</v>
+        <v>-8.469299999999997</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.135799999999996</v>
+        <v>-7.131899999999998</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-9.037399999999998</v>
+        <v>-9.201599999999992</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.5591</v>
+        <v>17.5881</v>
       </c>
     </row>
     <row r="35">
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.930399999999992</v>
+        <v>-7.919999999999992</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.34960000000001</v>
+        <v>17.50580000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.37799999999999</v>
+        <v>16.3852</v>
       </c>
     </row>
     <row r="46">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.3344</v>
+        <v>16.41359999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.47310000000001</v>
+        <v>17.35450000000002</v>
       </c>
     </row>
     <row r="52">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.110899999999992</v>
+        <v>-7.183599999999995</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.298599999999997</v>
+        <v>-8.439399999999996</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1559,10 +1559,10 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.073000000000003</v>
+        <v>-6.926599999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>17.20850000000002</v>
+        <v>17.21280000000002</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>17.13050000000002</v>
+        <v>17.04370000000002</v>
       </c>
     </row>
     <row r="68">
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>18.35320000000002</v>
+        <v>18.41420000000002</v>
       </c>
     </row>
     <row r="80">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.5074</v>
+        <v>16.4663</v>
       </c>
     </row>
     <row r="85">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.52680000000001</v>
+        <v>18.58810000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.67270000000001</v>
+        <v>16.5053</v>
       </c>
     </row>
     <row r="98">
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.521499999999998</v>
+        <v>-8.633900000000001</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
